--- a/Saturated Absorption Spectroscopy/Plechacek_Anthony/Jupyter Notebooks and Data Files/Diffraction Grating Data.xlsx
+++ b/Saturated Absorption Spectroscopy/Plechacek_Anthony/Jupyter Notebooks and Data Files/Diffraction Grating Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuwstout-my.sharepoint.com/personal/plechaceka4976_my_uwstout_edu/Documents/Documents/Obsidian/PHYS 439/lab-notebooks-saturated-absorption-spectroscopy/Saturated Absorption Spectroscopy/Plechacek_Anthony/Jupyter Notebooks and Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E112201D-51ED-4D4D-B735-C5D8AF2E35FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{E112201D-51ED-4D4D-B735-C5D8AF2E35FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A23A476F-082A-47E8-9433-3EED9A8A6365}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="3585" windowWidth="17010" windowHeight="10755" xr2:uid="{50E83978-E8CE-4BE0-BA25-5845C312B900}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{50E83978-E8CE-4BE0-BA25-5845C312B900}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t xml:space="preserve">Vertical (deg) </t>
   </si>
@@ -86,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,28 +408,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D30AB8D-E12C-4925-A120-4F464A6A41A1}">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -436,13 +438,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D2">
         <v>33.799999999999997</v>
@@ -453,219 +455,219 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B3">
-        <v>-360</v>
+        <v>-36</v>
       </c>
       <c r="C3">
-        <v>-36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B4">
-        <v>-360</v>
+        <v>-72</v>
       </c>
       <c r="C4">
-        <v>-72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B5">
-        <v>-360</v>
+        <v>-108</v>
       </c>
       <c r="C5">
-        <v>-108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B6">
-        <v>-360</v>
+        <v>-144</v>
       </c>
       <c r="C6">
-        <v>-144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B7">
-        <v>-360</v>
+        <v>-180</v>
       </c>
       <c r="C7">
-        <v>-180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B8">
-        <v>-360</v>
+        <v>-216</v>
       </c>
       <c r="C8">
-        <v>-216</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B9">
-        <v>-360</v>
+        <v>-252</v>
       </c>
       <c r="C9">
-        <v>-252</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B10">
-        <v>-360</v>
+        <v>-288</v>
       </c>
       <c r="C10">
-        <v>-288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B11">
-        <v>-360</v>
+        <v>-324</v>
       </c>
       <c r="C11">
-        <v>-324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B12">
         <v>-360</v>
       </c>
       <c r="C12">
-        <v>-360</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B13">
-        <v>-360</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B14">
-        <v>-360</v>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B15">
-        <v>-360</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B16">
-        <v>-360</v>
+        <v>144</v>
       </c>
       <c r="C16">
-        <v>144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B17">
-        <v>-360</v>
+        <v>180</v>
       </c>
       <c r="C17">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B18">
-        <v>-360</v>
+        <v>216</v>
       </c>
       <c r="C18">
-        <v>216</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B19">
-        <v>-360</v>
+        <v>252</v>
       </c>
       <c r="C19">
-        <v>252</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B20">
-        <v>-360</v>
+        <v>288</v>
       </c>
       <c r="C20">
-        <v>288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B21">
-        <v>-360</v>
+        <v>324</v>
       </c>
       <c r="C21">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="B22">
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="C22">
         <v>360</v>
@@ -673,10 +675,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B23">
-        <v>-324</v>
+        <v>360</v>
       </c>
       <c r="C23">
         <v>360</v>
@@ -684,2301 +686,2401 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B24">
-        <v>-324</v>
+        <v>324</v>
       </c>
       <c r="C24">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B25">
-        <v>-324</v>
+        <v>288</v>
       </c>
       <c r="C25">
-        <v>288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B26">
-        <v>-324</v>
+        <v>252</v>
       </c>
       <c r="C26">
-        <v>252</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B27">
-        <v>-324</v>
+        <v>216</v>
       </c>
       <c r="C27">
-        <v>216</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B28">
-        <v>-324</v>
+        <v>180</v>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B29">
-        <v>-324</v>
+        <v>144</v>
       </c>
       <c r="C29">
-        <v>144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B30">
-        <v>-324</v>
+        <v>108</v>
       </c>
       <c r="C30">
-        <v>108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B31">
-        <v>-324</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B32">
-        <v>-324</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B33">
-        <v>-324</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B34">
-        <v>-324</v>
+        <v>-36</v>
       </c>
       <c r="C34">
-        <v>-36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B35">
-        <v>-324</v>
+        <v>-72</v>
       </c>
       <c r="C35">
-        <v>-72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B36">
-        <v>-324</v>
+        <v>-108</v>
       </c>
       <c r="C36">
-        <v>-108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B37">
-        <v>-324</v>
+        <v>-144</v>
       </c>
       <c r="C37">
-        <v>-144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B38">
-        <v>-324</v>
+        <v>-180</v>
       </c>
       <c r="C38">
-        <v>-180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B39">
-        <v>-324</v>
+        <v>-216</v>
       </c>
       <c r="C39">
-        <v>-216</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B40">
-        <v>-324</v>
+        <v>-252</v>
       </c>
       <c r="C40">
-        <v>-252</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B41">
-        <v>-324</v>
+        <v>-288</v>
       </c>
       <c r="C41">
-        <v>-288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B42">
         <v>-324</v>
       </c>
       <c r="C42">
-        <v>-324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>360</v>
+        <v>-324</v>
       </c>
       <c r="B43">
-        <v>-324</v>
+        <v>-360</v>
       </c>
       <c r="C43">
-        <v>-360</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>360</v>
+        <v>-288</v>
       </c>
       <c r="B44">
-        <v>-288</v>
+        <v>-360</v>
       </c>
       <c r="C44">
-        <v>-360</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B45">
-        <v>-288</v>
+        <v>-324</v>
       </c>
       <c r="C45">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B46">
         <v>-288</v>
       </c>
       <c r="C46">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B47">
-        <v>-288</v>
+        <v>-252</v>
       </c>
       <c r="C47">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B48">
-        <v>-288</v>
+        <v>-216</v>
       </c>
       <c r="C48">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B49">
-        <v>-288</v>
+        <v>-180</v>
       </c>
       <c r="C49">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B50">
-        <v>-288</v>
+        <v>-144</v>
       </c>
       <c r="C50">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B51">
-        <v>-288</v>
+        <v>-108</v>
       </c>
       <c r="C51">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B52">
-        <v>-288</v>
+        <v>-72</v>
       </c>
       <c r="C52">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B53">
-        <v>-288</v>
+        <v>-36</v>
       </c>
       <c r="C53">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B54">
-        <v>-288</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B55">
-        <v>-288</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B56">
-        <v>-288</v>
+        <v>72</v>
       </c>
       <c r="C56">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B57">
-        <v>-288</v>
+        <v>108</v>
       </c>
       <c r="C57">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B58">
-        <v>-288</v>
+        <v>144</v>
       </c>
       <c r="C58">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B59">
-        <v>-288</v>
+        <v>180</v>
       </c>
       <c r="C59">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B60">
-        <v>-288</v>
+        <v>216</v>
       </c>
       <c r="C60">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B61">
-        <v>-288</v>
+        <v>252</v>
       </c>
       <c r="C61">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B62">
-        <v>-288</v>
+        <v>288</v>
       </c>
       <c r="C62">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B63">
-        <v>-288</v>
+        <v>324</v>
       </c>
       <c r="C63">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>356</v>
+        <v>-288</v>
       </c>
       <c r="B64">
-        <v>-288</v>
+        <v>360</v>
       </c>
       <c r="C64">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B65">
-        <v>-252</v>
+        <v>360</v>
       </c>
       <c r="C65">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B66">
-        <v>-252</v>
+        <v>324</v>
       </c>
       <c r="C66">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B67">
-        <v>-252</v>
+        <v>288</v>
       </c>
       <c r="C67">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B68">
-        <v>-252</v>
+        <v>252</v>
       </c>
       <c r="C68">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B69">
-        <v>-252</v>
+        <v>216</v>
       </c>
       <c r="C69">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B70">
-        <v>-252</v>
+        <v>180</v>
       </c>
       <c r="C70">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B71">
-        <v>-252</v>
+        <v>144</v>
       </c>
       <c r="C71">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B72">
-        <v>-252</v>
+        <v>108</v>
       </c>
       <c r="C72">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B73">
-        <v>-252</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B74">
-        <v>-252</v>
+        <v>36</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B75">
-        <v>-252</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B76">
-        <v>-252</v>
+        <v>-36</v>
       </c>
       <c r="C76">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B77">
-        <v>-252</v>
+        <v>-72</v>
       </c>
       <c r="C77">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B78">
-        <v>-252</v>
+        <v>-108</v>
       </c>
       <c r="C78">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B79">
-        <v>-252</v>
+        <v>-144</v>
       </c>
       <c r="C79">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B80">
-        <v>-252</v>
+        <v>-180</v>
       </c>
       <c r="C80">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B81">
-        <v>-252</v>
+        <v>-216</v>
       </c>
       <c r="C81">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B82">
         <v>-252</v>
       </c>
       <c r="C82">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B83">
-        <v>-252</v>
+        <v>-288</v>
       </c>
       <c r="C83">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B84">
-        <v>-252</v>
+        <v>-324</v>
       </c>
       <c r="C84">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>356</v>
+        <v>-252</v>
       </c>
       <c r="B85">
-        <v>-252</v>
+        <v>-360</v>
       </c>
       <c r="C85">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B86">
-        <v>-216</v>
+        <v>-360</v>
       </c>
       <c r="C86">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B87">
-        <v>-216</v>
+        <v>-324</v>
       </c>
       <c r="C87">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B88">
-        <v>-216</v>
+        <v>-288</v>
       </c>
       <c r="C88">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B89">
-        <v>-216</v>
+        <v>-252</v>
       </c>
       <c r="C89">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B90">
         <v>-216</v>
       </c>
       <c r="C90">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B91">
-        <v>-216</v>
+        <v>-180</v>
       </c>
       <c r="C91">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B92">
-        <v>-216</v>
+        <v>-144</v>
       </c>
       <c r="C92">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B93">
-        <v>-216</v>
+        <v>-108</v>
       </c>
       <c r="C93">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B94">
-        <v>-216</v>
+        <v>-72</v>
       </c>
       <c r="C94">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B95">
-        <v>-216</v>
+        <v>-36</v>
       </c>
       <c r="C95">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B96">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B97">
-        <v>-216</v>
+        <v>36</v>
       </c>
       <c r="C97">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B98">
-        <v>-216</v>
+        <v>72</v>
       </c>
       <c r="C98">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B99">
-        <v>-216</v>
+        <v>108</v>
       </c>
       <c r="C99">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B100">
-        <v>-216</v>
+        <v>144</v>
       </c>
       <c r="C100">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B101">
-        <v>-216</v>
+        <v>180</v>
       </c>
       <c r="C101">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B102">
-        <v>-216</v>
+        <v>216</v>
       </c>
       <c r="C102">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B103">
-        <v>-216</v>
+        <v>252</v>
       </c>
       <c r="C103">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B104">
-        <v>-216</v>
+        <v>288</v>
       </c>
       <c r="C104">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B105">
-        <v>-216</v>
+        <v>324</v>
       </c>
       <c r="C105">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>356</v>
+        <v>-216</v>
       </c>
       <c r="B106">
-        <v>-216</v>
+        <v>360</v>
       </c>
       <c r="C106">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B107">
-        <v>-180</v>
+        <v>360</v>
       </c>
       <c r="C107">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B108">
-        <v>-180</v>
+        <v>324</v>
       </c>
       <c r="C108">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B109">
-        <v>-180</v>
+        <v>288</v>
       </c>
       <c r="C109">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B110">
-        <v>-180</v>
+        <v>252</v>
       </c>
       <c r="C110">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B111">
-        <v>-180</v>
+        <v>216</v>
       </c>
       <c r="C111">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B112">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="C112">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B113">
-        <v>-180</v>
+        <v>144</v>
       </c>
       <c r="C113">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B114">
-        <v>-180</v>
+        <v>108</v>
       </c>
       <c r="C114">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B115">
-        <v>-180</v>
+        <v>72</v>
       </c>
       <c r="C115">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>-180</v>
+      </c>
+      <c r="B116">
+        <v>36</v>
+      </c>
+      <c r="C116">
         <v>364</v>
-      </c>
-      <c r="B116">
-        <v>-180</v>
-      </c>
-      <c r="C116">
-        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B117">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B118">
-        <v>-180</v>
+        <v>-36</v>
       </c>
       <c r="C118">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B119">
-        <v>-180</v>
+        <v>-72</v>
       </c>
       <c r="C119">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B120">
-        <v>-180</v>
+        <v>-108</v>
       </c>
       <c r="C120">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B121">
-        <v>-180</v>
+        <v>-144</v>
       </c>
       <c r="C121">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B122">
         <v>-180</v>
       </c>
       <c r="C122">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B123">
-        <v>-180</v>
+        <v>-216</v>
       </c>
       <c r="C123">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B124">
-        <v>-180</v>
+        <v>-252</v>
       </c>
       <c r="C124">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B125">
-        <v>-180</v>
+        <v>-288</v>
       </c>
       <c r="C125">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B126">
-        <v>-180</v>
+        <v>-324</v>
       </c>
       <c r="C126">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>356</v>
+        <v>-180</v>
       </c>
       <c r="B127">
-        <v>-180</v>
+        <v>-360</v>
       </c>
       <c r="C127">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B128">
-        <v>-144</v>
+        <v>-360</v>
       </c>
       <c r="C128">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B129">
-        <v>-144</v>
+        <v>-324</v>
       </c>
       <c r="C129">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B130">
-        <v>-144</v>
+        <v>-288</v>
       </c>
       <c r="C130">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B131">
-        <v>-144</v>
+        <v>-252</v>
       </c>
       <c r="C131">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B132">
-        <v>-144</v>
+        <v>-216</v>
       </c>
       <c r="C132">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B133">
-        <v>-144</v>
+        <v>-180</v>
       </c>
       <c r="C133">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B134">
         <v>-144</v>
       </c>
       <c r="C134">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B135">
-        <v>-144</v>
+        <v>-108</v>
       </c>
       <c r="C135">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B136">
-        <v>-144</v>
+        <v>-72</v>
       </c>
       <c r="C136">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B137">
-        <v>-144</v>
+        <v>-36</v>
       </c>
       <c r="C137">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B138">
-        <v>-144</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B139">
-        <v>-144</v>
+        <v>36</v>
       </c>
       <c r="C139">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B140">
-        <v>-144</v>
+        <v>72</v>
       </c>
       <c r="C140">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B141">
-        <v>-144</v>
+        <v>108</v>
       </c>
       <c r="C141">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B142">
-        <v>-144</v>
+        <v>144</v>
       </c>
       <c r="C142">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B143">
-        <v>-144</v>
+        <v>180</v>
       </c>
       <c r="C143">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B144">
-        <v>-144</v>
+        <v>216</v>
       </c>
       <c r="C144">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B145">
-        <v>-144</v>
+        <v>252</v>
       </c>
       <c r="C145">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B146">
-        <v>-144</v>
+        <v>288</v>
       </c>
       <c r="C146">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B147">
-        <v>-144</v>
+        <v>324</v>
       </c>
       <c r="C147">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>356</v>
+        <v>-144</v>
       </c>
       <c r="B148">
-        <v>-144</v>
+        <v>360</v>
       </c>
       <c r="C148">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B149">
-        <v>-108</v>
+        <v>360</v>
       </c>
       <c r="C149">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B150">
-        <v>-108</v>
+        <v>324</v>
       </c>
       <c r="C150">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B151">
-        <v>-108</v>
+        <v>288</v>
       </c>
       <c r="C151">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B152">
-        <v>-108</v>
+        <v>252</v>
       </c>
       <c r="C152">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B153">
-        <v>-108</v>
+        <v>216</v>
       </c>
       <c r="C153">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B154">
-        <v>-108</v>
+        <v>180</v>
       </c>
       <c r="C154">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B155">
-        <v>-108</v>
+        <v>144</v>
       </c>
       <c r="C155">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B156">
-        <v>-108</v>
+        <v>108</v>
       </c>
       <c r="C156">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B157">
-        <v>-108</v>
+        <v>72</v>
       </c>
       <c r="C157">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B158">
-        <v>-108</v>
+        <v>36</v>
       </c>
       <c r="C158">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B159">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B160">
-        <v>-108</v>
+        <v>-36</v>
       </c>
       <c r="C160">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B161">
-        <v>-108</v>
+        <v>-72</v>
       </c>
       <c r="C161">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B162">
         <v>-108</v>
       </c>
       <c r="C162">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B163">
-        <v>-108</v>
+        <v>-144</v>
       </c>
       <c r="C163">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B164">
-        <v>-108</v>
+        <v>-180</v>
       </c>
       <c r="C164">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B165">
-        <v>-108</v>
+        <v>-216</v>
       </c>
       <c r="C165">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B166">
-        <v>-108</v>
+        <v>-252</v>
       </c>
       <c r="C166">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B167">
-        <v>-108</v>
+        <v>-288</v>
       </c>
       <c r="C167">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B168">
-        <v>-108</v>
+        <v>-324</v>
       </c>
       <c r="C168">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>356</v>
+        <v>-108</v>
       </c>
       <c r="B169">
-        <v>-108</v>
+        <v>-360</v>
       </c>
       <c r="C169">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B170">
-        <v>-72</v>
+        <v>-360</v>
       </c>
       <c r="C170">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B171">
-        <v>-72</v>
+        <v>-324</v>
       </c>
       <c r="C171">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B172">
-        <v>-72</v>
+        <v>-288</v>
       </c>
       <c r="C172">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B173">
-        <v>-72</v>
+        <v>-252</v>
       </c>
       <c r="C173">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B174">
-        <v>-72</v>
+        <v>-216</v>
       </c>
       <c r="C174">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B175">
-        <v>-72</v>
+        <v>-180</v>
       </c>
       <c r="C175">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B176">
-        <v>-72</v>
+        <v>-144</v>
       </c>
       <c r="C176">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B177">
-        <v>-72</v>
+        <v>-108</v>
       </c>
       <c r="C177">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B178">
         <v>-72</v>
       </c>
       <c r="C178">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B179">
-        <v>-72</v>
+        <v>-36</v>
       </c>
       <c r="C179">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B180">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B181">
-        <v>-72</v>
+        <v>36</v>
       </c>
       <c r="C181">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B182">
-        <v>-72</v>
+        <v>72</v>
       </c>
       <c r="C182">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B183">
-        <v>-72</v>
+        <v>108</v>
       </c>
       <c r="C183">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B184">
-        <v>-72</v>
+        <v>144</v>
       </c>
       <c r="C184">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B185">
-        <v>-72</v>
+        <v>180</v>
       </c>
       <c r="C185">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B186">
-        <v>-72</v>
+        <v>216</v>
       </c>
       <c r="C186">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B187">
-        <v>-72</v>
+        <v>252</v>
       </c>
       <c r="C187">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B188">
-        <v>-72</v>
+        <v>288</v>
       </c>
       <c r="C188">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B189">
-        <v>-72</v>
+        <v>324</v>
       </c>
       <c r="C189">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>356</v>
+        <v>-72</v>
       </c>
       <c r="B190">
-        <v>-72</v>
+        <v>360</v>
       </c>
       <c r="C190">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B191">
-        <v>-36</v>
+        <v>360</v>
       </c>
       <c r="C191">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B192">
-        <v>-36</v>
+        <v>324</v>
       </c>
       <c r="C192">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B193">
-        <v>-36</v>
+        <v>288</v>
       </c>
       <c r="C193">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B194">
-        <v>-36</v>
+        <v>252</v>
       </c>
       <c r="C194">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B195">
-        <v>-36</v>
+        <v>216</v>
       </c>
       <c r="C195">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B196">
-        <v>-36</v>
+        <v>180</v>
       </c>
       <c r="C196">
-        <v>180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B197">
-        <v>-36</v>
+        <v>144</v>
       </c>
       <c r="C197">
-        <v>144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B198">
-        <v>-36</v>
+        <v>108</v>
       </c>
       <c r="C198">
-        <v>108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B199">
-        <v>-36</v>
+        <v>72</v>
       </c>
       <c r="C199">
-        <v>72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B200">
-        <v>-36</v>
+        <v>36</v>
       </c>
       <c r="C200">
-        <v>36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B201">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B202">
         <v>-36</v>
       </c>
       <c r="C202">
-        <v>-36</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B203">
-        <v>-36</v>
+        <v>-72</v>
       </c>
       <c r="C203">
-        <v>-72</v>
+        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B204">
-        <v>-36</v>
+        <v>-108</v>
       </c>
       <c r="C204">
-        <v>-108</v>
+        <v>356</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B205">
-        <v>-36</v>
+        <v>-144</v>
       </c>
       <c r="C205">
-        <v>-144</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B206">
-        <v>-36</v>
+        <v>-180</v>
       </c>
       <c r="C206">
-        <v>-180</v>
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B207">
-        <v>-36</v>
+        <v>-216</v>
       </c>
       <c r="C207">
-        <v>-216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B208">
-        <v>-36</v>
+        <v>-252</v>
       </c>
       <c r="C208">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B209">
-        <v>-36</v>
+        <v>-288</v>
       </c>
       <c r="C209">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B210">
-        <v>-36</v>
+        <v>-324</v>
       </c>
       <c r="C210">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>356</v>
+        <v>-36</v>
       </c>
       <c r="B211">
-        <v>-36</v>
+        <v>-360</v>
       </c>
       <c r="C211">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="C212">
-        <v>-360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>-324</v>
       </c>
       <c r="C213">
-        <v>-324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>-288</v>
       </c>
       <c r="C214">
-        <v>-288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>-252</v>
       </c>
       <c r="C215">
-        <v>-252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>-216</v>
       </c>
       <c r="C216">
-        <v>-216</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="C217">
-        <v>-180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="C218">
-        <v>-144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="C219">
-        <v>-108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="C220">
-        <v>-72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="C221">
-        <v>-36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C223">
-        <v>36</v>
+        <v>360</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C224">
-        <v>72</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C225">
-        <v>108</v>
+        <v>360</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C226">
-        <v>144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C227">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>216</v>
+      </c>
+      <c r="C228">
         <v>364</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-      <c r="C228">
-        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>360</v>
+      </c>
+      <c r="C229">
         <v>404</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-      <c r="C229">
-        <v>360</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>432</v>
+      </c>
+      <c r="C230">
         <v>412</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-      <c r="C230">
-        <v>432</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>504</v>
+      </c>
+      <c r="C231">
         <v>404</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-      <c r="C231">
-        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>612</v>
+      </c>
+      <c r="C232">
         <v>396</v>
       </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232">
-        <v>612</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF77BC47-2A62-4BD8-B9D5-7D2A279BF836}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>356</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>-36</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>-36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>A4+36</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>A5+36</f>
+        <v>36</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>A6</f>
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6+36</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
